--- a/Martin County Football Roster.xlsx
+++ b/Martin County Football Roster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cw216\Desktop\Martin County Football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB312C3D-60E3-48D4-99E4-25B498611E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC60AD8-672D-4BB2-B86D-764025461969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{73D8D128-17E9-436D-BCBC-40B8DBC04F80}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="64">
   <si>
     <t>0</t>
   </si>
@@ -216,6 +216,18 @@
   </si>
   <si>
     <t>Bailey Crum</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Number</t>
   </si>
 </sst>
 </file>
@@ -664,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892AFB5E-C3B7-4CDF-A942-A050D3B668C0}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -676,602 +688,616 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="54.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="35.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="35.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1">
+    <row r="4" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="70.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5">
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5">
         <v>7</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="53.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1">
+    <row r="6" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="35.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5">
+      <c r="D6" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5">
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="53.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1">
+      <c r="D7" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="35.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5">
+    <row r="9" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5">
         <v>12</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="70.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1">
+      <c r="D9" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="53.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5">
+    <row r="11" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5">
         <v>14</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="35.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1">
+    <row r="12" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1">
         <v>15</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="53.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5">
+      <c r="D12" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5">
         <v>16</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="53.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1">
+    <row r="14" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1">
         <v>17</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="35.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="5">
+    <row r="15" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5">
         <v>20</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="53.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1">
+    <row r="16" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1">
         <v>21</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="35.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="5">
+    <row r="17" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="5">
         <v>22</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="53.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1">
+    <row r="18" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1">
         <v>23</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="70.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="5">
+      <c r="D18" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="5">
         <v>24</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D19" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="53.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="1">
+    <row r="20" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1">
         <v>25</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="70.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="5">
+      <c r="D20" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="5">
         <v>28</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D21" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="70.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="1">
+    <row r="22" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1">
         <v>30</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="53.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="5">
+    <row r="23" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="5">
         <v>34</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D23" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="53.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="1">
+    <row r="24" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1">
         <v>35</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="53.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="5">
+      <c r="D24" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="5">
         <v>38</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B25" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="70.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="1">
+    <row r="26" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1">
         <v>44</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="70.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="5">
+    <row r="27" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="5">
         <v>50</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B27" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D27" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="70.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="1">
+    <row r="28" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1">
         <v>52</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="53.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="5">
+      <c r="D28" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="5">
         <v>55</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B29" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D29" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="35.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="1">
+    <row r="30" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="1">
         <v>56</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="53.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="5">
+    <row r="31" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="5">
         <v>57</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="35.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="1">
+      <c r="D31" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="1">
         <v>58</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="70.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="5">
+      <c r="D32" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="5">
         <v>60</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B33" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C33" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="53.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="1">
+    <row r="34" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="1">
         <v>62</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="35.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="5">
+    <row r="35" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="5">
         <v>64</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B35" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="53.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="1">
+      <c r="D35" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="1">
         <v>65</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="53.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="5">
+      <c r="D36" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="5">
         <v>67</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B37" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D37" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="70.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="1">
+    <row r="38" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="1">
         <v>70</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="53.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="5">
+    <row r="39" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="5">
         <v>71</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B39" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="35.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="1">
+      <c r="C39" s="7"/>
+      <c r="D39" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="1">
         <v>75</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="53.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="5">
+    <row r="41" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="5">
         <v>77</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B41" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D41" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="53.1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="1">
+    <row r="42" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1">
         <v>81</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="35.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="5">
+      <c r="D42" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="5">
         <v>84</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B43" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="35.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="1">
+      <c r="D43" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1">
         <v>88</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Martin County Football Roster.xlsx
+++ b/Martin County Football Roster.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cw216\Desktop\Martin County Football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC60AD8-672D-4BB2-B86D-764025461969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EDCA16-B1A2-47E9-BFAB-D8BB247AB5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{73D8D128-17E9-436D-BCBC-40B8DBC04F80}"/>
   </bookViews>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="64">
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Brayden Estep</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
   <si>
     <t>WR, DB</t>
   </si>
@@ -56,36 +50,18 @@
     <t>So.</t>
   </si>
   <si>
-    <t>Parker Watts</t>
-  </si>
-  <si>
     <t>Braxton Maynard</t>
   </si>
   <si>
     <t>Jr.</t>
   </si>
   <si>
-    <t>Weston Jude</t>
-  </si>
-  <si>
-    <t>WR, LB</t>
-  </si>
-  <si>
-    <t>Caleb Horn</t>
-  </si>
-  <si>
-    <t>PK</t>
-  </si>
-  <si>
     <t>Devan Maynard</t>
   </si>
   <si>
     <t>QB, DB</t>
   </si>
   <si>
-    <t>Aiden Horn</t>
-  </si>
-  <si>
     <t>RB, LB</t>
   </si>
   <si>
@@ -98,9 +74,6 @@
     <t>Fr.</t>
   </si>
   <si>
-    <t>Chase Stacy</t>
-  </si>
-  <si>
     <t>Jonothan Cline</t>
   </si>
   <si>
@@ -122,9 +95,6 @@
     <t>FB, LB</t>
   </si>
   <si>
-    <t>Julian Stafford</t>
-  </si>
-  <si>
     <t>Jeremy Begley</t>
   </si>
   <si>
@@ -149,12 +119,6 @@
     <t>TE, CB</t>
   </si>
   <si>
-    <t>Skyler Morrison</t>
-  </si>
-  <si>
-    <t>WR, CB</t>
-  </si>
-  <si>
     <t>James Begley</t>
   </si>
   <si>
@@ -167,52 +131,28 @@
     <t>OL, DL</t>
   </si>
   <si>
-    <t>Zachary Hamilton</t>
-  </si>
-  <si>
     <t>Brandon Wells</t>
   </si>
   <si>
     <t>Blake Stacy</t>
   </si>
   <si>
-    <t>Alexander Lowe</t>
-  </si>
-  <si>
-    <t>Caden Young</t>
-  </si>
-  <si>
     <t>Kendal Mullins</t>
   </si>
   <si>
     <t>Braxton Moore</t>
   </si>
   <si>
-    <t>Mason Mccoy</t>
-  </si>
-  <si>
-    <t>Corey Parsley</t>
-  </si>
-  <si>
     <t>Payton Ward</t>
   </si>
   <si>
     <t>Bryson Osborne</t>
   </si>
   <si>
-    <t>Peyton Lowe</t>
-  </si>
-  <si>
     <t>Liam May</t>
   </si>
   <si>
     <t>Braxton Carter</t>
-  </si>
-  <si>
-    <t>Kaleb Robinson</t>
-  </si>
-  <si>
-    <t>Jack Cline</t>
   </si>
   <si>
     <t>Bailey Crum</t>
@@ -679,7 +619,7 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -689,142 +629,102 @@
   <sheetData>
     <row r="1" spans="1:4" ht="54.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5">
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5">
         <v>7</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5">
-        <v>12</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
@@ -832,41 +732,33 @@
         <v>14</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5">
         <v>16</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
@@ -874,13 +766,13 @@
         <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
@@ -888,13 +780,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
@@ -902,13 +794,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
@@ -916,41 +808,33 @@
         <v>22</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1">
-        <v>23</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5">
         <v>24</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
@@ -958,13 +842,13 @@
         <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
@@ -972,13 +856,13 @@
         <v>28</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
@@ -986,13 +870,13 @@
         <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
@@ -1000,41 +884,33 @@
         <v>34</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="1">
-        <v>35</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="4" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="24" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5">
         <v>38</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
@@ -1042,13 +918,13 @@
         <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
@@ -1056,41 +932,33 @@
         <v>50</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="1">
-        <v>52</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="5">
         <v>55</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
@@ -1098,55 +966,39 @@
         <v>56</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="5">
-        <v>57</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="1">
-        <v>58</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="5">
         <v>60</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
@@ -1154,55 +1006,39 @@
         <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="5">
-        <v>64</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="1">
-        <v>65</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="5">
         <v>67</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
@@ -1210,39 +1046,33 @@
         <v>70</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="5">
-        <v>71</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>75</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
@@ -1250,55 +1080,39 @@
         <v>77</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="1">
-        <v>81</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="5">
-        <v>84</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" ht="17.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Martin County Football Roster.xlsx
+++ b/Martin County Football Roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cw216\Desktop\Martin County Football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA1F867A-51D1-47A0-8261-E465C3CEC3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257368FE-8883-40B0-9360-3CA04E639723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{709D5FDC-BCDF-4E52-917A-F0CD98921D43}"/>
+    <workbookView xWindow="12" yWindow="732" windowWidth="23028" windowHeight="12084" xr2:uid="{709D5FDC-BCDF-4E52-917A-F0CD98921D43}"/>
   </bookViews>
   <sheets>
     <sheet name="Updated_Football_Roster" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
   <si>
     <t>Number</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>TE, LB</t>
-  </si>
-  <si>
-    <t>Damian Cheek</t>
   </si>
   <si>
     <t>RB, LB</t>
@@ -1011,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5351C57-FDA9-4BAE-BD7B-12EC50102D58}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1218,23 +1215,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>19</v>
@@ -1243,10 +1223,10 @@
         <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
@@ -1260,10 +1240,10 @@
         <v>30</v>
       </c>
       <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -1277,10 +1257,10 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
@@ -1294,10 +1274,10 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
@@ -1311,10 +1291,10 @@
         <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
@@ -1328,10 +1308,10 @@
         <v>50</v>
       </c>
       <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
         <v>32</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -1345,10 +1325,10 @@
         <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
@@ -1362,10 +1342,10 @@
         <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
@@ -1379,10 +1359,10 @@
         <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
         <v>6</v>
@@ -1396,10 +1376,10 @@
         <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
@@ -1413,10 +1393,10 @@
         <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
         <v>6</v>
@@ -1430,10 +1410,10 @@
         <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" t="s">
         <v>6</v>
@@ -1447,10 +1427,10 @@
         <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
@@ -1464,10 +1444,10 @@
         <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
@@ -1481,7 +1461,7 @@
         <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
